--- a/Test-Management-and-Bug-Tracker-Template.xlsx
+++ b/Test-Management-and-Bug-Tracker-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\SoftUni\qa-profession\QA-Fundamentals\2023-May\02-QA-Fundamentals-and-Manual-Testing\Regular-Exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vksbu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ACE74BC-37AD-4FBF-8C32-88BF59BD05DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C29C939-95BF-45B9-BC26-7582635F26F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="204">
   <si>
     <t>Use Case 1: Home Page</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>To redirect us to the Home page</t>
-  </si>
-  <si>
-    <t>* If you want to add a new line in a cell, use Alt + Enter</t>
   </si>
   <si>
     <t>Use Case 2: User Registration</t>
@@ -848,7 +845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1219,7 +1216,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1329,9 +1326,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1365,6 +1359,12 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,12 +1391,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1551,13 +1545,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1570,6 +1557,13 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1805,13 +1799,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1825,6 +1812,13 @@
         <scheme val="none"/>
       </font>
       <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2056,13 +2050,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -2083,6 +2070,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2302,13 +2296,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2327,6 +2314,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2556,13 +2550,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2574,6 +2561,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2785,13 +2779,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2831,6 +2818,13 @@
         <family val="2"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2912,7 +2906,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3FD98CE3-E165-4146-A886-7B96DE07B602}" name="Table_134511" displayName="Table_134511" ref="A3:G18" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58" headerRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3FD98CE3-E165-4146-A886-7B96DE07B602}" name="Table_134511" displayName="Table_134511" ref="A3:G18" headerRowDxfId="60" dataDxfId="58" totalsRowDxfId="57" headerRowBorderDxfId="59">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{267E2C04-5619-4049-AAB0-A53E1441A07B}" name="Test Case ID" dataDxfId="56"/>
     <tableColumn id="3" xr3:uid="{F9EFD997-17E7-4ECE-B041-EB266253B8DC}" name="Prerequisites" dataDxfId="55"/>
@@ -2927,7 +2921,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{77E3F8AE-34C0-48C0-B1F8-25014EBF98C4}" name="Table_134512" displayName="Table_134512" ref="A3:G18" headerRowDxfId="49" dataDxfId="48" headerRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{77E3F8AE-34C0-48C0-B1F8-25014EBF98C4}" name="Table_134512" displayName="Table_134512" ref="A3:G18" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{596E79C9-8B6C-4BA5-B323-4B28E49EF1BD}" name="Test Case ID" dataDxfId="46"/>
     <tableColumn id="3" xr3:uid="{E3029210-671C-4C13-B603-41C7845ED7B5}" name="Prerequisites" dataDxfId="45"/>
@@ -2942,7 +2936,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B9E1C6BE-AD66-4F3B-87A9-2D66380E85FC}" name="Table_134513" displayName="Table_134513" ref="A3:G18" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B9E1C6BE-AD66-4F3B-87A9-2D66380E85FC}" name="Table_134513" displayName="Table_134513" ref="A3:G18" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{50ABEF24-B0A5-4668-88D2-ACD923D12FB9}" name="Test Case ID" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{3A2065DD-84E3-4993-8AB8-E0B1332B3994}" name="Prerequisites" dataDxfId="35"/>
@@ -2957,7 +2951,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6D02E916-FA80-455E-8388-6D68520D3509}" name="Table_1345" displayName="Table_1345" ref="A3:G18" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="27" dataCellStyle="Style 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6D02E916-FA80-455E-8388-6D68520D3509}" name="Table_1345" displayName="Table_1345" ref="A3:G18" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" dataCellStyle="Style 1">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{38BA0351-11E4-4FC7-B8C9-C557AFE32E11}" name="Test Case ID" dataDxfId="26" dataCellStyle="Style 1"/>
     <tableColumn id="2" xr3:uid="{77DF513B-1CA7-4A00-8001-53FAB06154B3}" name="Prerequisites" dataDxfId="25" dataCellStyle="Style 1"/>
@@ -2972,7 +2966,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DF6A190-B140-49CC-880B-92990D73B7D0}" name="Table_134510" displayName="Table_134510" ref="A3:G18" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DF6A190-B140-49CC-880B-92990D73B7D0}" name="Table_134510" displayName="Table_134510" ref="A3:G18" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F98620B6-B810-47AE-B2AC-D557F0178001}" name="Test Case ID" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{B85E1482-B865-4FA5-B343-2A5C32E6F40F}" name="Prerequisites" dataDxfId="15"/>
@@ -2987,7 +2981,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2A14DDAC-E7FA-4C2F-AEE2-F0FF07F699FB}" name="Table_13451014" displayName="Table_13451014" ref="A3:G18" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2A14DDAC-E7FA-4C2F-AEE2-F0FF07F699FB}" name="Table_13451014" displayName="Table_13451014" ref="A3:G18" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{10FE355D-8F68-4E55-AEAB-7F9ACF3B31D3}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{67F7F9AE-AFCA-4FBA-8F4B-4E40B11FB090}" name="Prerequisites" dataDxfId="5"/>
@@ -3266,12 +3260,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
@@ -3283,29 +3277,29 @@
     <col min="8" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" ht="28.9" customHeight="1">
+    <row r="3" spans="1:16" s="5" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -3329,7 +3323,7 @@
       </c>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" s="35" customFormat="1" ht="30.75">
+    <row r="4" spans="1:16" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
@@ -3351,7 +3345,7 @@
       <c r="G4" s="20"/>
       <c r="P4" s="36"/>
     </row>
-    <row r="5" spans="1:16" s="35" customFormat="1" ht="45.75">
+    <row r="5" spans="1:16" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>14</v>
       </c>
@@ -3372,7 +3366,7 @@
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:16" s="35" customFormat="1" ht="45.75">
+    <row r="6" spans="1:16" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>18</v>
       </c>
@@ -3393,7 +3387,7 @@
       </c>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:16" s="35" customFormat="1" ht="45.75">
+    <row r="7" spans="1:16" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
@@ -3414,7 +3408,7 @@
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:16" s="35" customFormat="1" ht="45.75">
+    <row r="8" spans="1:16" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>27</v>
       </c>
@@ -3435,7 +3429,7 @@
       </c>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="45.75">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>32</v>
       </c>
@@ -3454,7 +3448,7 @@
       </c>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" ht="14.45">
+    <row r="10" spans="1:16" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -3463,7 +3457,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:16" s="37" customFormat="1" ht="14.45">
+    <row r="11" spans="1:16" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -3472,7 +3466,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:16" s="37" customFormat="1" ht="14.45">
+    <row r="12" spans="1:16" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -3481,7 +3475,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:16" s="37" customFormat="1" ht="14.45">
+    <row r="13" spans="1:16" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
@@ -3490,7 +3484,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:16" s="37" customFormat="1" ht="14.45">
+    <row r="14" spans="1:16" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
@@ -3499,7 +3493,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:16" s="37" customFormat="1" ht="14.45">
+    <row r="15" spans="1:16" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
@@ -3508,7 +3502,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="37" customFormat="1" ht="14.45">
+    <row r="16" spans="1:16" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
@@ -3517,7 +3511,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" s="37" customFormat="1" ht="14.45">
+    <row r="17" spans="1:7" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
@@ -3526,7 +3520,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" s="37" customFormat="1" ht="14.45">
+    <row r="18" spans="1:7" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
@@ -3535,11 +3529,9 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="13.9"/>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="13.9">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3564,11 +3556,11 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -3579,29 +3571,29 @@
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.15" customHeight="1">
-      <c r="A1" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+    <row r="1" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="13.15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+    <row r="2" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="28.9" customHeight="1">
+    <row r="3" spans="1:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -3625,21 +3617,21 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="152.25">
+    <row r="4" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>13</v>
@@ -3647,21 +3639,21 @@
       <c r="G4" s="21"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="76.5">
+    <row r="5" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>13</v>
@@ -3669,19 +3661,19 @@
       <c r="G5" s="21"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="152.25">
+    <row r="6" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>50</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>13</v>
@@ -3689,140 +3681,140 @@
       <c r="G6" s="21"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="152.25">
+    <row r="7" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:16" ht="152.25">
+    <row r="8" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:16" ht="152.25">
+    <row r="9" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>61</v>
-      </c>
       <c r="E9" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:16" ht="152.25">
+    <row r="10" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:16" ht="152.25">
+    <row r="11" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:16" ht="152.25">
+    <row r="12" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>70</v>
-      </c>
       <c r="E12" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:16" s="7" customFormat="1" ht="152.25">
+    <row r="13" spans="1:16" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" ht="14.45">
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="22"/>
       <c r="C14" s="21"/>
@@ -3831,7 +3823,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:16" s="7" customFormat="1" ht="14.45">
+    <row r="15" spans="1:16" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="22"/>
       <c r="C15" s="21"/>
@@ -3840,7 +3832,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" ht="14.45">
+    <row r="16" spans="1:16" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="22"/>
       <c r="C16" s="21"/>
@@ -3849,7 +3841,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="14.45">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="22"/>
       <c r="C17" s="34"/>
@@ -3858,7 +3850,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="14.45">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="22"/>
       <c r="C18" s="34"/>
@@ -3894,7 +3886,7 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -3905,29 +3897,29 @@
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="28.9" customHeight="1">
+    <row r="3" spans="1:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -3943,145 +3935,145 @@
       <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" s="44" customFormat="1" ht="91.5">
+    <row r="4" spans="1:16" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="39" t="s">
         <v>79</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>80</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="34"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-    </row>
-    <row r="5" spans="1:16" s="44" customFormat="1" ht="60.75">
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+    </row>
+    <row r="5" spans="1:16" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="F5" s="39" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-    </row>
-    <row r="6" spans="1:16" s="44" customFormat="1" ht="91.5">
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+    </row>
+    <row r="6" spans="1:16" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="C6" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="D6" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="P6" s="45"/>
-    </row>
-    <row r="7" spans="1:16" s="44" customFormat="1" ht="91.5">
+      <c r="P6" s="44"/>
+    </row>
+    <row r="7" spans="1:16" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>92</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="P7" s="45"/>
-    </row>
-    <row r="8" spans="1:16" s="44" customFormat="1" ht="91.5">
+      <c r="P7" s="44"/>
+    </row>
+    <row r="8" spans="1:16" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="39" t="s">
+      <c r="D8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="E8" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:16" s="44" customFormat="1" ht="45.75">
+    <row r="9" spans="1:16" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>99</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:16" s="44" customFormat="1" ht="14.45">
+    <row r="10" spans="1:16" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -4090,7 +4082,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:16" ht="14.45">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="39"/>
       <c r="C11" s="21"/>
@@ -4099,7 +4091,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="39"/>
       <c r="C12" s="21"/>
@@ -4108,7 +4100,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="39"/>
       <c r="C13" s="21"/>
@@ -4117,7 +4109,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="39"/>
       <c r="C14" s="21"/>
@@ -4126,7 +4118,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="39"/>
       <c r="C15" s="21"/>
@@ -4135,7 +4127,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="39"/>
       <c r="C16" s="21"/>
@@ -4144,7 +4136,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="39"/>
       <c r="C17" s="21"/>
@@ -4153,7 +4145,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="39"/>
       <c r="C18" s="21"/>
@@ -4192,7 +4184,7 @@
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -4203,29 +4195,29 @@
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" s="31" customFormat="1" ht="28.9" customHeight="1">
+    <row r="3" spans="1:16" s="31" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
@@ -4241,90 +4233,90 @@
       <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="32"/>
     </row>
-    <row r="4" spans="1:16" s="24" customFormat="1" ht="76.5">
+    <row r="4" spans="1:16" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="23"/>
       <c r="O4" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="25" t="s">
+    </row>
+    <row r="5" spans="1:16" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="24" customFormat="1" ht="60.75">
-      <c r="A5" s="23" t="s">
+      <c r="B5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="23"/>
       <c r="P5" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="24" customFormat="1" ht="91.5">
-      <c r="A6" s="23" t="s">
+      <c r="B6" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>116</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="23"/>
       <c r="P6" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="24" customFormat="1" ht="14.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -4333,10 +4325,10 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="P7" s="25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="24" customFormat="1" ht="14.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4346,7 +4338,7 @@
       <c r="G8" s="23"/>
       <c r="P8" s="25"/>
     </row>
-    <row r="9" spans="1:16" s="24" customFormat="1" ht="14.45">
+    <row r="9" spans="1:16" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -4355,7 +4347,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:16" s="24" customFormat="1" ht="14.45">
+    <row r="10" spans="1:16" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -4364,7 +4356,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:16" s="24" customFormat="1" ht="14.45">
+    <row r="11" spans="1:16" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -4373,7 +4365,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:16" s="24" customFormat="1" ht="14.45">
+    <row r="12" spans="1:16" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -4382,7 +4374,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:16" s="24" customFormat="1" ht="14.45">
+    <row r="13" spans="1:16" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -4391,7 +4383,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:16" s="24" customFormat="1" ht="14.45">
+    <row r="14" spans="1:16" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -4400,7 +4392,7 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:16" s="24" customFormat="1" ht="14.45">
+    <row r="15" spans="1:16" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -4409,7 +4401,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:16" s="24" customFormat="1" ht="14.45">
+    <row r="16" spans="1:16" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -4418,7 +4410,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" ht="14.45">
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -4427,7 +4419,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="14.45">
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -4458,11 +4450,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58A1701-D022-45FC-8A5D-A4049B5076AA}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -4473,27 +4465,27 @@
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-    </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" ht="28.9" customHeight="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
@@ -4501,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>4</v>
@@ -4509,98 +4501,98 @@
       <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="121.5">
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>123</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>124</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="121.5">
+    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E5" s="28" t="s">
         <v>127</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>128</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="28"/>
     </row>
-    <row r="6" spans="1:7" ht="121.5">
+    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="D6" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="E6" s="28" t="s">
         <v>131</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>132</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:7" ht="137.25">
+    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>135</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="28"/>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -4609,7 +4601,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -4618,7 +4610,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -4627,7 +4619,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -4636,7 +4628,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -4645,7 +4637,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:7" ht="14.45">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -4654,7 +4646,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -4663,41 +4655,41 @@
       <c r="F14" s="23"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.45">
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.45">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.45">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4724,7 +4716,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -4735,27 +4727,27 @@
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-    </row>
-    <row r="3" spans="1:7" ht="28.9" customHeight="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -4763,7 +4755,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>4</v>
@@ -4771,98 +4763,98 @@
       <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60.75">
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>141</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="60.75">
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" ht="121.5">
+    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" ht="121.5">
+    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>152</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="14.45">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -4871,7 +4863,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="14.45">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -4880,7 +4872,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="14.45">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -4889,7 +4881,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" ht="14.45">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="22"/>
@@ -4898,7 +4890,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="14.45">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="22"/>
@@ -4907,7 +4899,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="14.45">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="33"/>
       <c r="C13" s="21"/>
@@ -4916,7 +4908,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="33"/>
       <c r="C14" s="21"/>
@@ -4925,7 +4917,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="33"/>
       <c r="C15" s="21"/>
@@ -4934,7 +4926,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="14.45">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="33"/>
       <c r="C16" s="21"/>
@@ -4943,7 +4935,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="14.45">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="33"/>
       <c r="C17" s="21"/>
@@ -4952,7 +4944,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" ht="14.45">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="33"/>
       <c r="C18" s="21"/>
@@ -4983,13 +4975,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:DN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="7" customWidth="1"/>
@@ -5002,282 +4994,391 @@
     <col min="10" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A1" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:118" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+    </row>
+    <row r="3" spans="1:118" s="41" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>153</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" s="42" customFormat="1" ht="31.15">
-      <c r="A3" s="52" t="s">
-        <v>154</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E3" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="F3" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="H3" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="I3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="7"/>
+      <c r="BM3" s="7"/>
+      <c r="BN3" s="7"/>
+      <c r="BO3" s="7"/>
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="7"/>
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7"/>
+      <c r="BU3" s="7"/>
+      <c r="BV3" s="7"/>
+      <c r="BW3" s="7"/>
+      <c r="BX3" s="7"/>
+      <c r="BY3" s="7"/>
+      <c r="BZ3" s="7"/>
+      <c r="CA3" s="7"/>
+      <c r="CB3" s="7"/>
+      <c r="CC3" s="7"/>
+      <c r="CD3" s="7"/>
+      <c r="CE3" s="7"/>
+      <c r="CF3" s="7"/>
+      <c r="CG3" s="7"/>
+      <c r="CH3" s="7"/>
+      <c r="CI3" s="7"/>
+      <c r="CJ3" s="7"/>
+      <c r="CK3" s="7"/>
+      <c r="CL3" s="7"/>
+      <c r="CM3" s="7"/>
+      <c r="CN3" s="7"/>
+      <c r="CO3" s="7"/>
+      <c r="CP3" s="7"/>
+      <c r="CQ3" s="7"/>
+      <c r="CR3" s="7"/>
+      <c r="CS3" s="7"/>
+      <c r="CT3" s="7"/>
+      <c r="CU3" s="7"/>
+      <c r="CV3" s="7"/>
+      <c r="CW3" s="7"/>
+      <c r="CX3" s="7"/>
+      <c r="CY3" s="7"/>
+      <c r="CZ3" s="7"/>
+      <c r="DA3" s="7"/>
+      <c r="DB3" s="7"/>
+      <c r="DC3" s="7"/>
+      <c r="DD3" s="7"/>
+      <c r="DE3" s="7"/>
+      <c r="DF3" s="7"/>
+      <c r="DG3" s="7"/>
+      <c r="DH3" s="7"/>
+      <c r="DI3" s="7"/>
+      <c r="DJ3" s="7"/>
+      <c r="DK3" s="7"/>
+      <c r="DL3" s="7"/>
+      <c r="DM3" s="7"/>
+      <c r="DN3" s="7"/>
+    </row>
+    <row r="4" spans="1:118" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="45.75">
-      <c r="A4" s="28" t="s">
-        <v>161</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="H4" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:118" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" ht="45.75">
-      <c r="A5" s="21" t="s">
-        <v>168</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="G5" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="H5" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:118" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" ht="76.5">
-      <c r="A6" s="21" t="s">
-        <v>173</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="G6" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="H6" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" ht="76.5">
-      <c r="A7" s="21" t="s">
+      <c r="B7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="G7" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="H7" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="I7" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="21" t="s">
+    </row>
+    <row r="8" spans="1:118" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="137.25">
-      <c r="A8" s="21" t="s">
+      <c r="B8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="G8" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="H8" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="I8" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="I8" s="21" t="s">
+    </row>
+    <row r="9" spans="1:118" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="76.5">
-      <c r="A9" s="21" t="s">
+      <c r="B9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="D9" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="F9" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="I9" s="21" t="s">
+    </row>
+    <row r="10" spans="1:118" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="30.75">
-      <c r="A10" s="21" t="s">
+      <c r="B10" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="C10" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="H10" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="I10" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I10" s="21" t="s">
+    </row>
+    <row r="11" spans="1:118" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="137.25">
-      <c r="A11" s="21" t="s">
+      <c r="B11" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="H11" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>204</v>
-      </c>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="14.45">
+    <row r="12" spans="1:118" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="28"/>
@@ -5285,10 +5386,10 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="48"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -5299,7 +5400,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -5310,7 +5411,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
